--- a/InputFiles/TC03_GMB_Filter_FileType-PathologyReport.xlsx
+++ b/InputFiles/TC03_GMB_Filter_FileType-PathologyReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Documents\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E973A-E64C-475E-AE80-DAED354FD2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4EAD9B-B164-4CBA-B8DB-A8185D01249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>WebExcel</t>
   </si>
@@ -48,135 +48,82 @@
     <t>TabName</t>
   </si>
   <si>
-    <t>CasesTab</t>
-  </si>
-  <si>
-    <t>MATCH (ss:study_subject)
-MATCH (samp:sample)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-MATCH (f:file)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-WHERE f.file_format IN ["txt"]
-WITH ss 
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp)
-MATCH (samp)&lt;-[:file_of_sample]-(f)
-MATCH (lp)&lt;-[:file_of_laboratory_procedure]-(f)
-RETURN COUNT(DISTINCT p) AS Programs,
-COUNT(DISTINCT s) AS Arms,
-COUNT(DISTINCT ss) AS Cases,
-COUNT(DISTINCT samp) AS Samples,
-COUNT(DISTINCT lp) AS Assays,
-COUNT(DISTINCT f) AS Files</t>
-  </si>
-  <si>
-    <t>MATCH (ss:study_subject)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
-WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
-MATCH (f:file)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-WHERE  f.file_format IN ['txt']
-return DISTINCT ss.study_subject_id as `Case ID`,
-   p.program_acronym as `Program Code`,
-    p.program_id as Program_ID,
-   s.study_acronym as `Arm`,
-   ss.disease_subtype as `Diagnosis`,
-   sf.grouped_recurrence_score AS `Recurrence Score`,
-   d.tumor_size_group AS `tumor_size`,
-   d.er_status AS `ER Status`,
-   d.pr_status AS `PR Status`,
-   coalesce(CASE demo.age_at_index % 1 WHEN 0 THEN apoc.convert.toInteger(demo.age_at_index) ELSE demo.age_at_index END, '') AS `Age (years)`,
-	demo.survival_time AS `Survival (days)`</t>
-  </si>
-  <si>
-    <t>SamplesTab</t>
-  </si>
-  <si>
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (ss:study_subject)
-WITH COLLECT(ss.study_subject_id) AS all_subjects
-MATCH (samp:sample)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
-MATCH (samp)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-WHERE  f.file_format IN ['txt']
+    <t>TC03_GMB_Filter_FileType-PathologyReport_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC03_GMB_Filter_FileType-PathologyReport_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>SubjectsTab</t>
+  </si>
+  <si>
+    <t>MATCH  (f:FILE)--&gt; (s:SUBJECT)
+MATCH(l:LABORATORY)--&gt;(s:SUBJECT)
+MATCH (gv:GERMLINE_VARIANT)--&gt;(s:SUBJECT)
+MATCH  (e:ENROLLMENT)-[*]-&gt; (s:SUBJECT)
+MATCH (sur:SURVIVAL)--&gt;(s:SUBJECT)
+MATCH(l:LABORATORY)--&gt;(s:SUBJECT)
+WHERE f.FILE_TYPE IN ['Pathology Report']
+OPTIONAL MATCH (AE:ADVERSE_EVENTS)--&gt;(s)
+RETURN DISTINCT
+s.PT_ID As Subject,
+s.PT_RACE_CD_1 As `Race`,
+s.DZ_DX_NM As `Disease Term`,
+e.DISEAS_STG As `Stage at Entry`,
+sur.DEATH_CAUS_CD As`Cause of Death`,
+sur.ATPSY_DZ_SITE_NM As `Sites of Disease at Autopsy`,
+l.LAB_DATA_SRCE_NM As `Source of The Lab Dat`,
+l.LAB_TEST_NM As `Lab Test`,
+AE.MEDDRA_SOC_TRM_NM As `System Organ Class`,
+AE.SAE_RSN As `Serious`,
+AE.AE_OUTCOME As `Outcome`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH  (f:FILE)--&gt; (s:SUBJECT)
+MATCH (s:SUBJECT)--&gt;(t:CLINICALTRIAL)
+MATCH (gv:GERMLINE_VARIANT)--&gt;(s:SUBJECT)
+WHERE f.FILE_TYPE IN ['Pathology Report']
+   RETURN
+    count(distinct t) AS Trials,
+    count(distinct s) AS Subjects,
+    count(distinct f) AS `Files`
+  </t>
+  </si>
+  <si>
+    <t>MATCH  (f:FILE)--&gt; (s:SUBJECT)
+MATCH(l:LABORATORY)--&gt;(s:SUBJECT)
+MATCH (gv:GERMLINE_VARIANT)--&gt;(s:SUBJECT)
+WHERE f.FILE_TYPE IN ['Pathology Report']
+WITH DISTINCT f,  s
 WITH
-    distinct lp,
-    toInteger(split(ss.study_subject_id,'-')[2]) AS subject_id_num,
-    collect(distinct f.file_id) AS files,
-    samp, ss, s, p, all_subjects
-RETURN
- samp.sample_id AS `Sample ID`,
-            ss.study_subject_id AS `Case ID`,
-            p.program_acronym AS `Program Code`,
-            s.study_acronym AS `Arm`,
-            ss.disease_subtype AS `Diagnosis`,
-            samp.tissue_type AS `Tissue Type`,
-            samp.composition AS `Tissue Composition`,
-            samp.sample_anatomic_site AS `Sample Anatomic Site`,
-            samp.method_of_sample_procurement AS `Sample Procurement Method`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
-MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
-WHERE  f.file_format IN ['txt']
-WITH
-        f, parent,p, ss, d,tp, s, samp,
+        f, s, 
         ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        toInteger(floor(log(f.FILE_SIZE)/log(1024))) as i,
         2 as precision
-WITH
-        f, parent,p, ss, d,tp, s, samp,
-        f.file_size /(1024^i) AS value,
-        10^precision AS factor,
+WITH    
+        f, s,
+        f.FILE_SIZE /(1024^i) AS value, 10^precision AS factor,
         units[i] as unit
-WITH
-        f, parent,p, ss, d,tp, s, samp, unit,
+        WITH    
+        f, s, unit,
         round(factor * value)/factor AS size
-RETURN Distinct
-    f.file_name AS `File Name`,
-    head(labels(samp)) AS `Association`,
-    f.file_description AS `Description`,
-    f.file_format AS `File Format`,
-     CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-    p.program_acronym AS `Program Code`,
-    s.study_acronym AS `Arm`,
-    ss.study_subject_id AS `Case ID`,
-    samp.sample_id AS `Sample ID`
-    order by f.file_name</t>
-  </si>
-  <si>
-    <t>TC03_GMB_Filter_FileType-PathologyReport_Neo4jData.xlsx</t>
-  </si>
-  <si>
-    <t>TC03_GMB_Filter_FileType-PathologyReport_WebData.xlsx</t>
+ ORDER BY f.FILE_NAME
+ RETURN DISTINCT
+ coalesce(f.FILE_NAME, '') as `File Name`,
+ coalesce( f.FILE_DESCRIPTION, '') as `Description`,
+ coalesce( f.FILE_FORMAT, '') as `File Format`,  
+ CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+ coalesce(f.FILE_TYPE, '') as `Type`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +140,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,9 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,7 +506,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,14 +518,14 @@
     <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -571,56 +535,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="327.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
